--- a/Recycling/Met_rec_tech/metrec_tech_Max_full_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_full_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.169705936274783E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.800572064006474E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.102075108495908E-08</v>
+      </c>
+      <c r="E7">
         <v>3.718644367834683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.283380943691214E-10</v>
-      </c>
-      <c r="F7">
-        <v>7.102075108495908E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.909787433570616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>847.6145265638326</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>56.92980753125968</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>611290.3252511192</v>
+      </c>
+      <c r="E7">
         <v>1754580.452537107</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>107400.1501708798</v>
-      </c>
-      <c r="F7">
-        <v>611290.3252511192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4675768.263870144</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1037.837319771802</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>69.70607158290321</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>750516.9134063781</v>
+      </c>
+      <c r="E7">
         <v>1808675.54853349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>131503.0364667078</v>
-      </c>
-      <c r="F7">
-        <v>750516.9134063781</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4819925.878714852</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.517125993903758E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.720505351861904E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.232449813020389E-06</v>
+      </c>
+      <c r="E7">
         <v>7.993688271514687</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.079194117257356E-08</v>
-      </c>
-      <c r="F7">
-        <v>1.232449813020389E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21.30231980937272</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.402116268297331E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.417277168928252E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.73981744603841E-05</v>
+      </c>
+      <c r="E7">
         <v>17.72097428898147</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.776603550940043E-07</v>
-      </c>
-      <c r="F7">
-        <v>1.73981744603841E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47.22449122550338</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.563024411979346E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.04980124988388E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0001685101412088076</v>
+      </c>
+      <c r="E7">
         <v>32.76137256352332</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.980488197245293E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0001685101412088076</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>87.30553557224744</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.5674518978247E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.052774959148223E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.001489461431384338</v>
+      </c>
+      <c r="E7">
         <v>65.18857861762771</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.986098207807503E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.001489461431384338</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>173.7205533245055</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.262980096274305E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.482772716058831E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.01072650357469673</v>
+      </c>
+      <c r="E7">
         <v>121.7177012837463</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0001600305890846213</v>
-      </c>
-      <c r="F7">
-        <v>0.01072650357469673</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>324.3645875518674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.244581026778761E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.865803859817058E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0557014604698264</v>
+      </c>
+      <c r="E7">
         <v>184.6967886075115</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0009179515756476951</v>
-      </c>
-      <c r="F7">
-        <v>0.0557014604698264</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>492.1970841297008</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.324951066025531E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.904842048532395E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.3045133874919905</v>
+      </c>
+      <c r="E7">
         <v>325.7554184674339</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.005480090057633857</v>
-      </c>
-      <c r="F7">
-        <v>0.3045133874919905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>868.1031669145146</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002342182982201409</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.573121061530986E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.525500506709924</v>
+      </c>
+      <c r="E7">
         <v>570.7476141066022</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02967750034156197</v>
-      </c>
-      <c r="F7">
-        <v>1.525500506709924</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1520.981028177057</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001169026232798444</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.851734054394716E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.106059033482748</v>
+      </c>
+      <c r="E7">
         <v>993.141949107383</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1481258154756217</v>
-      </c>
-      <c r="F7">
-        <v>7.106059033482748</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2646.61651760664</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.00481861094984045</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0003236407415697806</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27.54739133040828</v>
+      </c>
+      <c r="E7">
         <v>1518.793054193153</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.6105600168580125</v>
-      </c>
-      <c r="F7">
-        <v>27.54739133040828</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4047.420197753836</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01966845256696952</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001321026461892475</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>106.4456086269452</v>
+      </c>
+      <c r="E7">
         <v>2424.777298731784</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.492164413326947</v>
-      </c>
-      <c r="F7">
-        <v>106.4456086269452</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6461.770803367066</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.07558568201931115</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.005076692523100972</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>389.2658995220424</v>
+      </c>
+      <c r="E7">
         <v>3815.968414428807</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.577364881359236</v>
-      </c>
-      <c r="F7">
-        <v>389.2658995220424</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10169.14555403651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2331298355887303</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01565810430793877</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1145.809641747349</v>
+      </c>
+      <c r="E7">
         <v>5023.965872901572</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29.5395826367501</v>
-      </c>
-      <c r="F7">
-        <v>1145.809641747349</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13388.32890410481</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7760016240633913</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.05211994570334543</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3632.269120782868</v>
+      </c>
+      <c r="E7">
         <v>7435.468424324697</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>98.32617108996466</v>
-      </c>
-      <c r="F7">
-        <v>3632.269120782868</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>19814.72393311683</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.340772191046673</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1572173507349353</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>10289.03489771033</v>
+      </c>
+      <c r="E7">
         <v>10462.32556355709</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>296.5962438767849</v>
-      </c>
-      <c r="F7">
-        <v>10289.03489771033</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27880.9727793448</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.414710132915202</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4308423248904548</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>25405.53349513128</v>
+      </c>
+      <c r="E7">
         <v>14393.29426384805</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>812.7996984321074</v>
-      </c>
-      <c r="F7">
-        <v>25405.53349513128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38356.58173105152</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.99213193042011</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.006942611923008</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48919.79734185348</v>
+      </c>
+      <c r="E7">
         <v>19384.41520693839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1899.633819675344</v>
-      </c>
-      <c r="F7">
-        <v>48919.79734185348</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51657.38242850254</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>26.24680397045185</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.762859709832968</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64257.26861566274</v>
+      </c>
+      <c r="E7">
         <v>25584.28468250354</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3325.698887393814</v>
-      </c>
-      <c r="F7">
-        <v>64257.26861566274</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68179.36800748621</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>28.3773115447782</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.905954692692675</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>62629.25985973541</v>
+      </c>
+      <c r="E7">
         <v>33121.80830948482</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3595.652771207549</v>
-      </c>
-      <c r="F7">
-        <v>62629.25985973541</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>88266.05808330938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>8.159288184838944E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.174362577405594E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>17.52772074300097</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.177244769985153</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>60842.63835591662</v>
+      </c>
+      <c r="E7">
         <v>42093.27978750868</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2220.915027946706</v>
-      </c>
-      <c r="F7">
-        <v>60842.63835591662</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>112174.0650125459</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.26408229400379</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7565491351517246</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64178.75134710526</v>
+      </c>
+      <c r="E7">
         <v>52551.23673432146</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1427.257428937008</v>
-      </c>
-      <c r="F7">
-        <v>64178.75134710526</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>140043.395897955</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>17.44783322298665</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.171879145640556</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>68174.45576605048</v>
+      </c>
+      <c r="E7">
         <v>64497.19145483149</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2210.792582687186</v>
-      </c>
-      <c r="F7">
-        <v>68174.45576605048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>171878.0808695233</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>26.55838049491761</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.783786665439785</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>71729.05407871993</v>
+      </c>
+      <c r="E7">
         <v>77881.684749926</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3365.178349423565</v>
-      </c>
-      <c r="F7">
-        <v>71729.05407871993</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>207546.3164791765</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>37.02916656954276</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.487054267926435</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74390.26712754102</v>
+      </c>
+      <c r="E7">
         <v>92616.96143994421</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4691.918231266787</v>
-      </c>
-      <c r="F7">
-        <v>74390.26712754102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>246814.2446080383</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>51.96279143497046</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.490067268162938</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>80018.58001266854</v>
+      </c>
+      <c r="E7">
         <v>108609.1454551942</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6584.13869573252</v>
-      </c>
-      <c r="F7">
-        <v>80018.58001266854</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>289431.6956233804</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>63.74024945259262</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.281097149244416</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82495.61416439492</v>
+      </c>
+      <c r="E7">
         <v>125817.541381796</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8076.445304553478</v>
-      </c>
-      <c r="F7">
-        <v>82495.61416439492</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>335290.2206225443</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>73.38449058919905</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.928850077592456</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>80558.8192371117</v>
+      </c>
+      <c r="E7">
         <v>144347.4513134684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9298.454736782931</v>
-      </c>
-      <c r="F7">
-        <v>80558.8192371117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>384670.4383638302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>108.6107456778286</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.294812268415895</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82075.61523850696</v>
+      </c>
+      <c r="E7">
         <v>164578.1476505698</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13761.92836531284</v>
-      </c>
-      <c r="F7">
-        <v>82075.61523850696</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>438583.0690170616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>179.4221622616025</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.05084250479305</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82622.08895098958</v>
+      </c>
+      <c r="E7">
         <v>187318.0201061851</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22734.35219308841</v>
-      </c>
-      <c r="F7">
-        <v>82622.08895098958</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>499182.3842543159</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0005972851857822285</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.00159170080352942</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>263.0050888771574</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.66466786525849</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>84852.97032304482</v>
+      </c>
+      <c r="E7">
         <v>213963.7509496011</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33325.03768620235</v>
-      </c>
-      <c r="F7">
-        <v>84852.97032304482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>570190.3921602032</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>352.9879262097124</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.70834155172312</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>88962.99015699494</v>
+      </c>
+      <c r="E7">
         <v>246625.6270836837</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44726.64766272801</v>
-      </c>
-      <c r="F7">
-        <v>88962.99015699494</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>657230.7804452606</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>368.8572243791098</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.77419880419662</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>88455.86502789061</v>
+      </c>
+      <c r="E7">
         <v>288171.7177162505</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46737.42609217412</v>
-      </c>
-      <c r="F7">
-        <v>88455.86502789061</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>767946.6451904369</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>319.8638733481502</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.48357322252907</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82868.18334234455</v>
+      </c>
+      <c r="E7">
         <v>342143.5852685546</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40529.54138374301</v>
-      </c>
-      <c r="F7">
-        <v>82868.18334234455</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>911775.8694804694</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>309.9186182261921</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.81560276874555</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74636.16467761232</v>
+      </c>
+      <c r="E7">
         <v>412512.2019394116</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39269.39085527565</v>
-      </c>
-      <c r="F7">
-        <v>74636.16467761232</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1099300.667289693</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>286.0694937658475</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.21378257481778</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73879.50418331359</v>
+      </c>
+      <c r="E7">
         <v>503274.647348744</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36247.49886521183</v>
-      </c>
-      <c r="F7">
-        <v>73879.50418331359</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1341172.826062776</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>251.1610094196546</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.86916337262778</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86151.19440945247</v>
+      </c>
+      <c r="E7">
         <v>617931.3232994628</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31824.28956013088</v>
-      </c>
-      <c r="F7">
-        <v>86151.19440945247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1646720.540261921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>216.9262200621023</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.56979271778578</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117952.5546144163</v>
+      </c>
+      <c r="E7">
         <v>758913.8780503541</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27486.44328350426</v>
-      </c>
-      <c r="F7">
-        <v>117952.5546144163</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2022423.891060314</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>247.4774048235196</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.62175503533869</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>183707.528715443</v>
+      </c>
+      <c r="E7">
         <v>927041.4233698229</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31357.544743476</v>
-      </c>
-      <c r="F7">
-        <v>183707.528715443</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2470465.723254689</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>385.8894785949049</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.91816569473537</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>282015.3868295114</v>
+      </c>
+      <c r="E7">
         <v>1121066.209270096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48895.56119155793</v>
-      </c>
-      <c r="F7">
-        <v>282015.3868295114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2987520.917278351</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.007204924098922823</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01920034809268688</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>549.8374720100431</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.92968970447301</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>397205.6933604933</v>
+      </c>
+      <c r="E7">
         <v>1337345.346576807</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69669.20128522403</v>
-      </c>
-      <c r="F7">
-        <v>397205.6933604933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3563881.565143567</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>768.743801522601</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>51.63247595454552</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>558702.2241165487</v>
+      </c>
+      <c r="E7">
         <v>1569665.066707022</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>97406.54169904982</v>
-      </c>
-      <c r="F7">
-        <v>558702.2241165487</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4182988.641644568</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1094.410183457745</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>73.50577314558092</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>795739.4200153935</v>
+      </c>
+      <c r="E7">
         <v>1809259.485050065</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>138671.311508074</v>
-      </c>
-      <c r="F7">
-        <v>795739.4200153935</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4821482.006750115</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1321.625170466442</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.76660819882329</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>960916.6525113881</v>
+      </c>
+      <c r="E7">
         <v>2045093.489567043</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167461.4312630247</v>
-      </c>
-      <c r="F7">
-        <v>960916.6525113881</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5449954.273306713</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1349.166939967799</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.616443929151</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>983352.3540700113</v>
+      </c>
+      <c r="E7">
         <v>2264487.136421387</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170951.2135729256</v>
-      </c>
-      <c r="F7">
-        <v>983352.3540700113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6034614.754262673</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1332.293132616881</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.48311908076543</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>974641.3340637725</v>
+      </c>
+      <c r="E7">
         <v>2454118.487076411</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>168813.1550726898</v>
-      </c>
-      <c r="F7">
-        <v>974641.3340637725</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6539961.915713987</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1298.3624825723</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.2041758631694</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>954450.8466754179</v>
+      </c>
+      <c r="E7">
         <v>2601350.368695339</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>164513.8458985576</v>
-      </c>
-      <c r="F7">
-        <v>954450.8466754179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6932319.050724937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1250.146679266544</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83.96577407068307</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>921556.0743748983</v>
+      </c>
+      <c r="E7">
         <v>2695711.946677635</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>158404.4832657102</v>
-      </c>
-      <c r="F7">
-        <v>921556.0743748983</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7183782.510847459</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1212.749004020808</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.45396901410005</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>892861.8328523277</v>
+      </c>
+      <c r="E7">
         <v>2730274.489164066</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153665.8717724451</v>
-      </c>
-      <c r="F7">
-        <v>892861.8328523277</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7275887.970613088</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1181.896376238032</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.38176035502066</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>866693.8347892782</v>
+      </c>
+      <c r="E7">
         <v>2702636.956304744</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>149756.5748536329</v>
-      </c>
-      <c r="F7">
-        <v>866693.8347892782</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7202236.916967515</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.03974224058138269</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1059087982980885</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1093.519234842674</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>73.44593281535215</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>798671.3619892359</v>
+      </c>
+      <c r="E7">
         <v>2615304.509743739</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>138558.4205510949</v>
-      </c>
-      <c r="F7">
-        <v>798671.3619892359</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6969505.33635198</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>878.0720730015597</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>58.97548065534297</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>638988.1025006431</v>
+      </c>
+      <c r="E7">
         <v>2475390.727517567</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>111259.3868388843</v>
-      </c>
-      <c r="F7">
-        <v>638988.1025006431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6596650.149423847</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>538.991499715167</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.20122281783316</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>386438.1948354679</v>
+      </c>
+      <c r="E7">
         <v>2293753.11523977</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68294.92203833435</v>
-      </c>
-      <c r="F7">
-        <v>386438.1948354679</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6112605.44130824</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>325.0483317859917</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.83178601474803</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>209209.3921832266</v>
+      </c>
+      <c r="E7">
         <v>2083806.788253418</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41186.45746685468</v>
-      </c>
-      <c r="F7">
-        <v>209209.3921832266</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5553121.052080367</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>344.9474644893348</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.16830604754268</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>182034.8319940895</v>
+      </c>
+      <c r="E7">
         <v>1860286.949064131</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43707.85106457092</v>
-      </c>
-      <c r="F7">
-        <v>182034.8319940895</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4957464.712175642</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>397.9548370816237</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.72853233536989</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>173799.6371353597</v>
+      </c>
+      <c r="E7">
         <v>1638133.502020607</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50424.34729978128</v>
-      </c>
-      <c r="F7">
-        <v>173799.6371353597</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4365449.660432954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>418.4198933631273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.10306247697272</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153015.9978960402</v>
+      </c>
+      <c r="E7">
         <v>1431515.183200083</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53017.44834867355</v>
-      </c>
-      <c r="F7">
-        <v>153015.9978960402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3814834.055159204</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>386.1387607943611</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.93490866832921</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117942.3240245724</v>
+      </c>
+      <c r="E7">
         <v>1252910.437703084</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48927.1474195159</v>
-      </c>
-      <c r="F7">
-        <v>117942.3240245724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3338871.610938478</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>335.6575505749111</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.54435141420938</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91391.07289305805</v>
+      </c>
+      <c r="E7">
         <v>1112200.572810634</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42530.73798048019</v>
-      </c>
-      <c r="F7">
-        <v>91391.07289305805</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2963894.949294825</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>307.1670552620662</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.63079476339805</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87311.46178192306</v>
+      </c>
+      <c r="E7">
         <v>1015880.875778958</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38920.74383910222</v>
-      </c>
-      <c r="F7">
-        <v>87311.46178192306</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2707213.312431113</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1557076124683535</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.4149440464640771</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>287.3527396631256</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.29997144919147</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94934.79901034385</v>
+      </c>
+      <c r="E7">
         <v>966627.4749884102</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36410.09730796452</v>
-      </c>
-      <c r="F7">
-        <v>94934.79901034385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2575958.294759444</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>272.6394541821381</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.31175748596367</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>118118.9697825322</v>
+      </c>
+      <c r="E7">
         <v>963438.5468562396</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34545.79576446555</v>
-      </c>
-      <c r="F7">
-        <v>118118.9697825322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2567460.144141953</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>281.8105138028885</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.9277293018121</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>163606.7769854668</v>
+      </c>
+      <c r="E7">
         <v>1002373.356105203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35707.84897335486</v>
-      </c>
-      <c r="F7">
-        <v>163606.7769854668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2671217.2247494</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>342.5119874455993</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.00472787019743</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>237167.6492265595</v>
+      </c>
+      <c r="E7">
         <v>1077653.780300774</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43399.25489020457</v>
-      </c>
-      <c r="F7">
-        <v>237167.6492265595</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2871831.461523411</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>469.4880755515122</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.53304354955065</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>340580.7603075122</v>
+      </c>
+      <c r="E7">
         <v>1182741.655425248</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59488.23225350004</v>
-      </c>
-      <c r="F7">
-        <v>340580.7603075122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3151879.35030164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>650.368469200501</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.68182778329979</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>472226.6606451023</v>
+      </c>
+      <c r="E7">
         <v>1311065.290196467</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82407.35507649271</v>
-      </c>
-      <c r="F7">
-        <v>472226.6606451023</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3493848.040366615</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>866.6466642834316</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>58.20809607319586</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>629443.4792881034</v>
+      </c>
+      <c r="E7">
         <v>1456295.026343488</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>109811.6879455381</v>
-      </c>
-      <c r="F7">
-        <v>629443.4792881034</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3880869.672953803</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1091.163293153006</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>73.28769660921797</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>793613.9269345048</v>
+      </c>
+      <c r="E7">
         <v>1612300.582431438</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>138259.9021994924</v>
-      </c>
-      <c r="F7">
-        <v>793613.9269345048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4296607.707130962</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1260.155936602406</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>84.6380432163896</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>917656.4682943696</v>
+      </c>
+      <c r="E7">
         <v>1773016.400056138</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>159672.743432662</v>
-      </c>
-      <c r="F7">
-        <v>917656.4682943696</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4724898.081884024</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1328.801581606625</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.24860997223794</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>969609.7456394606</v>
+      </c>
+      <c r="E7">
         <v>1932377.270726071</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>168370.7451197234</v>
-      </c>
-      <c r="F7">
-        <v>969609.7456394606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5149577.668678536</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.07007459311117E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.390360175148491E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.627190285851392E-11</v>
+      </c>
+      <c r="E7">
         <v>0.5376625309914275</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.622964982282184E-13</v>
-      </c>
-      <c r="F7">
-        <v>5.627190285851392E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.432812838788107</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1329.231166838581</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.27746295175527</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>972623.142892777</v>
+      </c>
+      <c r="E7">
         <v>2084365.171968601</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>168425.1773138132</v>
-      </c>
-      <c r="F7">
-        <v>972623.142892777</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5554609.084647208</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1313.921498317968</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.24919307797292</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>963551.8852931834</v>
+      </c>
+      <c r="E7">
         <v>2223136.296911659</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>166485.3088398195</v>
-      </c>
-      <c r="F7">
-        <v>963551.8852931834</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5924419.212767615</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1309.275602532672</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.93715270516408</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>959901.3087932301</v>
+      </c>
+      <c r="E7">
         <v>2343199.082857824</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165896.6333400711</v>
-      </c>
-      <c r="F7">
-        <v>959901.3087932301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6244373.628871561</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1316.993528046092</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.45552514953549</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>962112.3137406803</v>
+      </c>
+      <c r="E7">
         <v>2439643.338597906</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>166874.5617888783</v>
-      </c>
-      <c r="F7">
-        <v>962112.3137406803</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6501387.201301359</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1282.611920003739</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.14629345620747</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>932289.8147729689</v>
+      </c>
+      <c r="E7">
         <v>2508429.585195234</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>162518.1123048957</v>
-      </c>
-      <c r="F7">
-        <v>932289.8147729689</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6684695.152991722</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1158.628380782152</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>77.81897153837367</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>836972.5243666496</v>
+      </c>
+      <c r="E7">
         <v>2546727.560925603</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>146808.3169748214</v>
-      </c>
-      <c r="F7">
-        <v>836972.5243666496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6786755.140740698</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>961.3323174920785</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>64.56763315544985</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>685900.9964858602</v>
+      </c>
+      <c r="E7">
         <v>2553261.390570886</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>121809.1856935556</v>
-      </c>
-      <c r="F7">
-        <v>685900.9964858602</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6804167.094266554</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>736.7615860567546</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.48439883477852</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>508848.803871599</v>
+      </c>
+      <c r="E7">
         <v>2528593.959334714</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93354.11617284495</v>
-      </c>
-      <c r="F7">
-        <v>508848.803871599</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6738431.042118869</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>576.7944863362798</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.74025050671818</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>368383.6047656741</v>
+      </c>
+      <c r="E7">
         <v>2475273.217707196</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73084.89001643688</v>
-      </c>
-      <c r="F7">
-        <v>368383.6047656741</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6596336.998413169</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>530.446644364699</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.62730984768072</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>300648.1468158427</v>
+      </c>
+      <c r="E7">
         <v>2397773.436489962</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67212.2143698508</v>
-      </c>
-      <c r="F7">
-        <v>300648.1468158427</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6389808.413788603</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.379419703525985E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.26483628648E-15</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.777989759224344E-09</v>
+      </c>
+      <c r="E7">
         <v>1.588076409237414</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.747845024647584E-11</v>
-      </c>
-      <c r="F7">
-        <v>2.777989759224344E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.232052890009109</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>543.4589640756445</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.50127889075794</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274637.7200340953</v>
+      </c>
+      <c r="E7">
         <v>2302198.416538524</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68860.98872096124</v>
-      </c>
-      <c r="F7">
-        <v>274637.7200340953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6135111.261280435</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>546.0994480173001</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.67862630267317</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>250937.0822070716</v>
+      </c>
+      <c r="E7">
         <v>2195767.778224056</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69195.5610565809</v>
-      </c>
-      <c r="F7">
-        <v>250937.0822070716</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5851485.052966854</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>519.6593074981945</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.90278119422009</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>222898.8265800234</v>
+      </c>
+      <c r="E7">
         <v>2086165.401114404</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65845.36474292997</v>
-      </c>
-      <c r="F7">
-        <v>222898.8265800234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5559406.501770751</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>481.4767327627851</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.33825856912195</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>202465.4111687898</v>
+      </c>
+      <c r="E7">
         <v>1980866.043272559</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61007.29964142895</v>
-      </c>
-      <c r="F7">
-        <v>202465.4111687898</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5278795.034288103</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>452.8736162896666</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.41713774759695</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>199591.359518641</v>
+      </c>
+      <c r="E7">
         <v>1886553.349736698</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>57383.03541719286</v>
-      </c>
-      <c r="F7">
-        <v>199591.359518641</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5027461.845959558</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>438.1225824186648</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.42638842364706</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213524.7217381582</v>
+      </c>
+      <c r="E7">
         <v>1808701.434494869</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55513.9508235819</v>
-      </c>
-      <c r="F7">
-        <v>213524.7217381582</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4819994.86201882</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>439.6005438800201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.52565531785034</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>244372.1613800864</v>
+      </c>
+      <c r="E7">
         <v>1751335.980443855</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55701.22142586831</v>
-      </c>
-      <c r="F7">
-        <v>244372.1613800864</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4667122.094568131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>469.2408734771655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.51644028701464</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>296267.7692059045</v>
+      </c>
+      <c r="E7">
         <v>1716947.998246934</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59456.90959552836</v>
-      </c>
-      <c r="F7">
-        <v>296267.7692059045</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4575481.81920635</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>545.4230805366003</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.63319825809642</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375141.9537547104</v>
+      </c>
+      <c r="E7">
         <v>1706518.673570434</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69109.8594000834</v>
-      </c>
-      <c r="F7">
-        <v>375141.9537547104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4547688.790242953</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>675.6575086620296</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.38035949090477</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>482305.9431050871</v>
+      </c>
+      <c r="E7">
         <v>1719621.338952038</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85611.69685064344</v>
-      </c>
-      <c r="F7">
-        <v>482305.9431050871</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4582605.984763629</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
